--- a/220313_pytest/test.xlsx
+++ b/220313_pytest/test.xlsx
@@ -6,8 +6,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -420,94 +419,116 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="J14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.125" defaultRowHeight="16.5"/>
+  <cols>
+    <col width="7.125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="5.5" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="5.25" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="15.625" bestFit="1" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B1" t="n">
-        <v>8</v>
-      </c>
-      <c r="C1" t="n">
-        <v>9</v>
-      </c>
-      <c r="G1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1" t="n">
-        <v>3</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>품목</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>가격</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>수량</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>날짜</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>4</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>바나나</t>
+        </is>
       </c>
       <c r="B2" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G2" t="n">
-        <v>4</v>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I2" t="n">
-        <v>6</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2022년03월13일</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>생수</t>
+        </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>800</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
-      <c r="G3" t="n">
-        <v>7</v>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2021년09월15일</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>라면</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>780</v>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2022년01월20일</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>과자</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2021년08월30일</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>